--- a/runs/run611/NotionalETEOutput611.xlsx
+++ b/runs/run611/NotionalETEOutput611.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_BRAVER0_State_Update</t>
+    <t>Missile_BRAVER3_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0_386.MISSILE_BRAVER0_386</t>
+    <t>MISSILE_BRAVER3_129.MISSILE_BRAVER3_129</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER0</t>
+    <t>MISSILE_BRAVER3</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1505.941785873983</v>
+        <v>-1525.347804424062</v>
       </c>
       <c r="J2">
-        <v>2081.39971369745</v>
+        <v>2028.407663118375</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1494.038661399072</v>
+        <v>-1543.818258456897</v>
       </c>
       <c r="J3">
-        <v>1919.902671094289</v>
+        <v>2047.870871404946</v>
       </c>
       <c r="K3">
-        <v>300.1980794886283</v>
+        <v>314.7550601268113</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1497.31162065529</v>
+        <v>-1466.218145422366</v>
       </c>
       <c r="J4">
-        <v>1918.970760172374</v>
+        <v>1953.989505698289</v>
       </c>
       <c r="K4">
-        <v>591.1067962447174</v>
+        <v>579.5743674304358</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1395.41228966127</v>
+        <v>-1421.751147559582</v>
       </c>
       <c r="J5">
-        <v>1811.000467458559</v>
+        <v>1815.080842985518</v>
       </c>
       <c r="K5">
-        <v>898.7707798579041</v>
+        <v>902.2305131705609</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1405.880720034693</v>
+        <v>-1351.942585111793</v>
       </c>
       <c r="J6">
-        <v>1787.927528149223</v>
+        <v>1794.352055991525</v>
       </c>
       <c r="K6">
-        <v>1112.536843082855</v>
+        <v>1068.343067549809</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1285.385808404463</v>
+        <v>-1364.281137059894</v>
       </c>
       <c r="J7">
-        <v>1752.309580986433</v>
+        <v>1816.891147591228</v>
       </c>
       <c r="K7">
-        <v>1435.047848339278</v>
+        <v>1382.320005514592</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1302.07911850101</v>
+        <v>-1352.336212228967</v>
       </c>
       <c r="J8">
-        <v>1772.869518855429</v>
+        <v>1757.689039852892</v>
       </c>
       <c r="K8">
-        <v>1536.580052641773</v>
+        <v>1593.138157103766</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-102.3285802495875</v>
+        <v>-103.9149794910093</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1239.255843490259</v>
+        <v>-1220.0302315083</v>
       </c>
       <c r="J9">
-        <v>1608.839085103073</v>
+        <v>1602.864141426172</v>
       </c>
       <c r="K9">
-        <v>1732.722687804433</v>
+        <v>1741.992942403323</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>220.419505267331</v>
+        <v>221.6875690670574</v>
       </c>
       <c r="G10">
-        <v>-83.17966457331919</v>
+        <v>-80.26279364528283</v>
       </c>
       <c r="H10">
-        <v>837.243540150905</v>
+        <v>858.4207898933076</v>
       </c>
       <c r="I10">
-        <v>-1284.39447198983</v>
+        <v>-1283.718520714751</v>
       </c>
       <c r="J10">
-        <v>1575.962888771066</v>
+        <v>1676.405585101976</v>
       </c>
       <c r="K10">
-        <v>2053.405479976215</v>
+        <v>1965.283784161981</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>164.3303788330975</v>
+        <v>176.8245271931373</v>
       </c>
       <c r="G11">
-        <v>-67.22336643189632</v>
+        <v>-68.42316765246058</v>
       </c>
       <c r="H11">
-        <v>1063.247924385187</v>
+        <v>1109.999548552022</v>
       </c>
       <c r="I11">
-        <v>-1262.698646179916</v>
+        <v>-1161.888817570007</v>
       </c>
       <c r="J11">
-        <v>1496.234323422109</v>
+        <v>1510.49400140232</v>
       </c>
       <c r="K11">
-        <v>2084.400351869939</v>
+        <v>2201.77299793726</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>133.9499264909222</v>
+        <v>133.5899937099222</v>
       </c>
       <c r="G12">
-        <v>-49.6065237237446</v>
+        <v>-48.88740920568578</v>
       </c>
       <c r="H12">
-        <v>1156.281766671002</v>
+        <v>1125.74653715604</v>
       </c>
       <c r="I12">
-        <v>-1191.154761278157</v>
+        <v>-1139.608581692727</v>
       </c>
       <c r="J12">
-        <v>1470.105398190606</v>
+        <v>1570.046149271752</v>
       </c>
       <c r="K12">
-        <v>2242.882709411731</v>
+        <v>2327.36063062643</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>118.8435800001441</v>
+        <v>118.7726567131661</v>
       </c>
       <c r="G13">
-        <v>-34.07105544824471</v>
+        <v>-35.44784603190884</v>
       </c>
       <c r="H13">
-        <v>1205.604529644013</v>
+        <v>1302.847903533439</v>
       </c>
       <c r="I13">
-        <v>-1129.439858841013</v>
+        <v>-1075.164108349382</v>
       </c>
       <c r="J13">
-        <v>1489.377669980272</v>
+        <v>1471.505367564716</v>
       </c>
       <c r="K13">
-        <v>2430.635011171369</v>
+        <v>2497.396748293343</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>110.053672086347</v>
+        <v>109.1848084753323</v>
       </c>
       <c r="G14">
-        <v>-17.60869504971207</v>
+        <v>-17.01299358968469</v>
       </c>
       <c r="H14">
-        <v>1365.654060614023</v>
+        <v>1318.831205084902</v>
       </c>
       <c r="I14">
-        <v>-1117.698705915772</v>
+        <v>-1126.507882973355</v>
       </c>
       <c r="J14">
-        <v>1369.071308355575</v>
+        <v>1378.73236883122</v>
       </c>
       <c r="K14">
-        <v>2707.328753770159</v>
+        <v>2559.438696404476</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.98827297389033</v>
+        <v>100.8831836078504</v>
       </c>
       <c r="G15">
-        <v>-0.9361914761712608</v>
+        <v>-0.8937440107731111</v>
       </c>
       <c r="H15">
-        <v>1428.465366367277</v>
+        <v>1374.373086163196</v>
       </c>
       <c r="I15">
-        <v>-1026.833079498899</v>
+        <v>-1053.626126939074</v>
       </c>
       <c r="J15">
-        <v>1385.462743415909</v>
+        <v>1426.168965261305</v>
       </c>
       <c r="K15">
-        <v>2695.795231118574</v>
+        <v>2763.108246295965</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.07559688725514</v>
+        <v>89.86184346499111</v>
       </c>
       <c r="G16">
-        <v>15.45813986170513</v>
+        <v>15.05825436499706</v>
       </c>
       <c r="H16">
-        <v>1367.230810334774</v>
+        <v>1410.131146305227</v>
       </c>
       <c r="I16">
-        <v>-1050.51967032037</v>
+        <v>-1029.071498577801</v>
       </c>
       <c r="J16">
-        <v>1296.830309658092</v>
+        <v>1270.511327329148</v>
       </c>
       <c r="K16">
-        <v>2732.200291615707</v>
+        <v>2771.379625291243</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>85.40865159710842</v>
+        <v>82.94022436076433</v>
       </c>
       <c r="G17">
-        <v>30.90509942680265</v>
+        <v>33.1033503678571</v>
       </c>
       <c r="H17">
-        <v>1422.712514997017</v>
+        <v>1489.70492433299</v>
       </c>
       <c r="I17">
-        <v>-988.7274284553774</v>
+        <v>-924.1580247617484</v>
       </c>
       <c r="J17">
-        <v>1323.302211605577</v>
+        <v>1236.684636516257</v>
       </c>
       <c r="K17">
-        <v>2876.556514144816</v>
+        <v>3055.763710390199</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>82.46783772013018</v>
+        <v>85.5299687754755</v>
       </c>
       <c r="G18">
-        <v>47.31322269122475</v>
+        <v>49.7097639874589</v>
       </c>
       <c r="H18">
-        <v>1451.027089402789</v>
+        <v>1469.419379830157</v>
       </c>
       <c r="I18">
-        <v>-962.2752167764734</v>
+        <v>-895.6546509412891</v>
       </c>
       <c r="J18">
-        <v>1279.811804145139</v>
+        <v>1209.562984500201</v>
       </c>
       <c r="K18">
-        <v>2943.873700164679</v>
+        <v>3191.222901122686</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.58035807427653</v>
+        <v>75.49456809248555</v>
       </c>
       <c r="G19">
-        <v>66.57185692262063</v>
+        <v>65.14546293278423</v>
       </c>
       <c r="H19">
-        <v>1583.406306159898</v>
+        <v>1600.366391786694</v>
       </c>
       <c r="I19">
-        <v>-908.4840102518115</v>
+        <v>-870.9756515972795</v>
       </c>
       <c r="J19">
-        <v>1138.648506174406</v>
+        <v>1211.479536840971</v>
       </c>
       <c r="K19">
-        <v>3072.213580272718</v>
+        <v>3255.354820302311</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>77.6268049603642</v>
+        <v>70.87129432424111</v>
       </c>
       <c r="G20">
-        <v>80.51828236823928</v>
+        <v>82.54553953578824</v>
       </c>
       <c r="H20">
-        <v>1573.802225459729</v>
+        <v>1607.915032790431</v>
       </c>
       <c r="I20">
-        <v>-876.2288145858357</v>
+        <v>-811.6076428470476</v>
       </c>
       <c r="J20">
-        <v>1109.025706181926</v>
+        <v>1121.265077305523</v>
       </c>
       <c r="K20">
-        <v>3000.650025773975</v>
+        <v>3147.079019333338</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.82695344599261</v>
+        <v>71.32673279963851</v>
       </c>
       <c r="G21">
-        <v>97.62107882886113</v>
+        <v>94.89609739125875</v>
       </c>
       <c r="H21">
-        <v>1662.222356009726</v>
+        <v>1550.85984461551</v>
       </c>
       <c r="I21">
-        <v>-754.1773073330811</v>
+        <v>-814.5295633136269</v>
       </c>
       <c r="J21">
-        <v>1025.393831327458</v>
+        <v>1107.935700822534</v>
       </c>
       <c r="K21">
-        <v>3247.31402589796</v>
+        <v>3111.148690265913</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>67.80297125121417</v>
+        <v>70.48602151287335</v>
       </c>
       <c r="G22">
-        <v>111.4392696935736</v>
+        <v>111.2978918060328</v>
       </c>
       <c r="H22">
-        <v>1676.452544736971</v>
+        <v>1588.670355560951</v>
       </c>
       <c r="I22">
-        <v>-778.3049301594147</v>
+        <v>-727.0877013372005</v>
       </c>
       <c r="J22">
-        <v>991.4082436536468</v>
+        <v>994.591907313203</v>
       </c>
       <c r="K22">
-        <v>3304.506436023835</v>
+        <v>3192.585397164364</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>64.17117965478886</v>
+        <v>63.16820232922513</v>
       </c>
       <c r="G23">
-        <v>124.9937299230074</v>
+        <v>133.8623913110274</v>
       </c>
       <c r="H23">
-        <v>1610.267053974004</v>
+        <v>1656.533137467198</v>
       </c>
       <c r="I23">
-        <v>-697.659975821594</v>
+        <v>-723.427441000882</v>
       </c>
       <c r="J23">
-        <v>932.7461366224749</v>
+        <v>936.1543188804159</v>
       </c>
       <c r="K23">
-        <v>3053.841189437579</v>
+        <v>3124.450555083552</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>60.52394051718723</v>
+        <v>63.35618048552633</v>
       </c>
       <c r="G24">
-        <v>146.8362206488837</v>
+        <v>149.5976924422578</v>
       </c>
       <c r="H24">
-        <v>1657.528911195433</v>
+        <v>1623.346165867837</v>
       </c>
       <c r="I24">
-        <v>-651.8387130410089</v>
+        <v>-646.9401240181279</v>
       </c>
       <c r="J24">
-        <v>958.77388700773</v>
+        <v>906.8547229901309</v>
       </c>
       <c r="K24">
-        <v>3146.709545375823</v>
+        <v>3288.49752548436</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.15418064373511</v>
+        <v>63.58357677955404</v>
       </c>
       <c r="G25">
-        <v>169.4559250800442</v>
+        <v>171.2031565333257</v>
       </c>
       <c r="H25">
-        <v>1596.733531528025</v>
+        <v>1632.169126603872</v>
       </c>
       <c r="I25">
-        <v>-590.8366290672458</v>
+        <v>-618.3035522529472</v>
       </c>
       <c r="J25">
-        <v>889.633319330086</v>
+        <v>859.6944067971738</v>
       </c>
       <c r="K25">
-        <v>3109.274974997908</v>
+        <v>3271.906552163607</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>59.56321125398108</v>
+        <v>59.18872106031889</v>
       </c>
       <c r="G26">
-        <v>181.6290237388637</v>
+        <v>174.7101522330393</v>
       </c>
       <c r="H26">
-        <v>1618.25626189073</v>
+        <v>1616.553534112995</v>
       </c>
       <c r="I26">
-        <v>-546.902715607036</v>
+        <v>-533.754070579536</v>
       </c>
       <c r="J26">
-        <v>847.6776067749006</v>
+        <v>813.5189764150651</v>
       </c>
       <c r="K26">
-        <v>3163.649206937174</v>
+        <v>3142.452287814164</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.02492124015613</v>
+        <v>56.92975044739265</v>
       </c>
       <c r="G27">
-        <v>194.1875380781302</v>
+        <v>199.4088585551426</v>
       </c>
       <c r="H27">
-        <v>1742.509723368272</v>
+        <v>1758.775806430913</v>
       </c>
       <c r="I27">
-        <v>-475.0316805458794</v>
+        <v>-476.6170153699123</v>
       </c>
       <c r="J27">
-        <v>811.3565240218882</v>
+        <v>764.7889469121853</v>
       </c>
       <c r="K27">
-        <v>2961.543280300868</v>
+        <v>3146.028926716344</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.36813817725632</v>
+        <v>57.38063885278452</v>
       </c>
       <c r="G28">
-        <v>219.9897580015563</v>
+        <v>212.5897002929227</v>
       </c>
       <c r="H28">
-        <v>1758.731171871603</v>
+        <v>1676.089764073494</v>
       </c>
       <c r="I28">
-        <v>-457.2609096650225</v>
+        <v>-445.6396530771027</v>
       </c>
       <c r="J28">
-        <v>726.3670365500047</v>
+        <v>712.8237491696724</v>
       </c>
       <c r="K28">
-        <v>3089.75745654618</v>
+        <v>2867.379794050005</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.513900664395</v>
+        <v>52.92570769152965</v>
       </c>
       <c r="G29">
-        <v>222.7497534028413</v>
+        <v>239.8471206563453</v>
       </c>
       <c r="H29">
-        <v>1685.951164448771</v>
+        <v>1666.067746479806</v>
       </c>
       <c r="I29">
-        <v>-381.2289640777324</v>
+        <v>-392.6486459343434</v>
       </c>
       <c r="J29">
-        <v>656.7725583217775</v>
+        <v>716.315826707092</v>
       </c>
       <c r="K29">
-        <v>3029.048578221606</v>
+        <v>2890.838480070252</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.52471250781021</v>
+        <v>54.78933238577336</v>
       </c>
       <c r="G30">
-        <v>250.283923691239</v>
+        <v>248.8557131798429</v>
       </c>
       <c r="H30">
-        <v>1792.431632449404</v>
+        <v>1819.461506201261</v>
       </c>
       <c r="I30">
-        <v>-319.8630371648771</v>
+        <v>-342.1007213797237</v>
       </c>
       <c r="J30">
-        <v>629.7707968355516</v>
+        <v>611.3511643124693</v>
       </c>
       <c r="K30">
-        <v>2801.196992042435</v>
+        <v>2708.257970111199</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.89518883038443</v>
+        <v>54.67321826139842</v>
       </c>
       <c r="G31">
-        <v>250.5035461142922</v>
+        <v>265.1209880037237</v>
       </c>
       <c r="H31">
-        <v>1759.789406994947</v>
+        <v>1817.807329237977</v>
       </c>
       <c r="I31">
-        <v>-279.929835523916</v>
+        <v>-271.2885690472893</v>
       </c>
       <c r="J31">
-        <v>564.4218713389665</v>
+        <v>581.1897522234322</v>
       </c>
       <c r="K31">
-        <v>2538.892885060201</v>
+        <v>2724.488477866801</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>52.33971003526661</v>
+        <v>53.08375410337339</v>
       </c>
       <c r="G32">
-        <v>281.2370374325331</v>
+        <v>267.035649558673</v>
       </c>
       <c r="H32">
-        <v>1755.737114278235</v>
+        <v>1823.883668688873</v>
       </c>
       <c r="I32">
-        <v>-201.2376142286347</v>
+        <v>-197.6263420811499</v>
       </c>
       <c r="J32">
-        <v>550.179971580638</v>
+        <v>548.9476615515877</v>
       </c>
       <c r="K32">
-        <v>2581.044216000543</v>
+        <v>2456.295994732279</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.13651010429306</v>
+        <v>52.63042541397637</v>
       </c>
       <c r="G33">
-        <v>299.6149065378132</v>
+        <v>288.2646968953297</v>
       </c>
       <c r="H33">
-        <v>1822.254585189996</v>
+        <v>1717.865346065957</v>
       </c>
       <c r="I33">
-        <v>-149.7610626897165</v>
+        <v>-150.5537169405802</v>
       </c>
       <c r="J33">
-        <v>494.6086732200348</v>
+        <v>468.7847420738893</v>
       </c>
       <c r="K33">
-        <v>2303.486194362498</v>
+        <v>2343.266134075898</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.96615744965983</v>
+        <v>47.05463108741244</v>
       </c>
       <c r="G34">
-        <v>326.6252335930404</v>
+        <v>325.6781603513542</v>
       </c>
       <c r="H34">
-        <v>1771.670235475208</v>
+        <v>1770.049205564546</v>
       </c>
       <c r="I34">
-        <v>-86.2393494902676</v>
+        <v>-81.21939709027239</v>
       </c>
       <c r="J34">
-        <v>446.5108135776656</v>
+        <v>431.7262988007476</v>
       </c>
       <c r="K34">
-        <v>2259.530469458424</v>
+        <v>2294.334411521093</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>47.72454937139482</v>
+        <v>50.10475148792476</v>
       </c>
       <c r="G35">
-        <v>322.6895417019537</v>
+        <v>332.45990818138</v>
       </c>
       <c r="H35">
-        <v>1771.191906081116</v>
+        <v>1755.400459945135</v>
       </c>
       <c r="I35">
-        <v>-18.09844346879916</v>
+        <v>-18.31204900034818</v>
       </c>
       <c r="J35">
-        <v>402.7106024048523</v>
+        <v>377.7985073880729</v>
       </c>
       <c r="K35">
-        <v>2058.959780709611</v>
+        <v>2076.104277301715</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>47.97606045077135</v>
+        <v>48.55801637558301</v>
       </c>
       <c r="G36">
-        <v>353.5650939080979</v>
+        <v>352.2304118359787</v>
       </c>
       <c r="H36">
-        <v>1776.228903547641</v>
+        <v>1830.915568718182</v>
       </c>
       <c r="I36">
-        <v>46.31078822590857</v>
+        <v>47.10442944919995</v>
       </c>
       <c r="J36">
-        <v>334.6752624669163</v>
+        <v>356.2799606998437</v>
       </c>
       <c r="K36">
-        <v>1921.957219373585</v>
+        <v>1752.134001854787</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>44.50723063604428</v>
+        <v>48.31213763135146</v>
       </c>
       <c r="G37">
-        <v>348.1196991789092</v>
+        <v>371.208448511161</v>
       </c>
       <c r="H37">
-        <v>1890.260725995641</v>
+        <v>1869.239149132273</v>
       </c>
       <c r="I37">
-        <v>117.5975849891505</v>
+        <v>111.079795374392</v>
       </c>
       <c r="J37">
-        <v>302.9275963422162</v>
+        <v>302.8077790018087</v>
       </c>
       <c r="K37">
-        <v>1542.201250437022</v>
+        <v>1581.657855586088</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>45.66673086501982</v>
+        <v>45.82861943683017</v>
       </c>
       <c r="G38">
-        <v>372.421851659839</v>
+        <v>378.8827821202008</v>
       </c>
       <c r="H38">
-        <v>1832.466435805712</v>
+        <v>1815.050355875199</v>
       </c>
       <c r="I38">
-        <v>189.9094361045369</v>
+        <v>176.3269071012056</v>
       </c>
       <c r="J38">
-        <v>258.2366530376274</v>
+        <v>244.65993839227</v>
       </c>
       <c r="K38">
-        <v>1431.93894297044</v>
+        <v>1441.483721172845</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.96519724162867</v>
+        <v>45.48881118313111</v>
       </c>
       <c r="G39">
-        <v>404.1020324877638</v>
+        <v>391.131299351722</v>
       </c>
       <c r="H39">
-        <v>1824.963737767266</v>
+        <v>1923.091852532116</v>
       </c>
       <c r="I39">
-        <v>256.6854736533583</v>
+        <v>267.5561326180642</v>
       </c>
       <c r="J39">
-        <v>193.345226085405</v>
+        <v>207.2378697791331</v>
       </c>
       <c r="K39">
-        <v>1133.264138506645</v>
+        <v>1184.803752728951</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.3163912371561</v>
+        <v>42.9384196361979</v>
       </c>
       <c r="G40">
-        <v>406.0587102298052</v>
+        <v>405.4675943890571</v>
       </c>
       <c r="H40">
-        <v>1941.087483436909</v>
+        <v>1883.082166731074</v>
       </c>
       <c r="I40">
-        <v>325.603439671321</v>
+        <v>313.5156310442547</v>
       </c>
       <c r="J40">
-        <v>153.9174981214346</v>
+        <v>145.7621716014088</v>
       </c>
       <c r="K40">
-        <v>896.7088859089509</v>
+        <v>891.612866579628</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.05914319399826</v>
+        <v>45.10881164455055</v>
       </c>
       <c r="G41">
-        <v>446.4259224221578</v>
+        <v>427.1698606419609</v>
       </c>
       <c r="H41">
-        <v>1897.291265148049</v>
+        <v>1975.533118622131</v>
       </c>
       <c r="I41">
-        <v>418.4140385540252</v>
+        <v>382.8813982917528</v>
       </c>
       <c r="J41">
-        <v>104.5146426560491</v>
+        <v>97.64471958659225</v>
       </c>
       <c r="K41">
-        <v>653.7601956935509</v>
+        <v>617.7839232655856</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.87391360374113</v>
+        <v>43.00090101750852</v>
       </c>
       <c r="G42">
-        <v>457.6672691689854</v>
+        <v>439.8178855640773</v>
       </c>
       <c r="H42">
-        <v>1952.240468318452</v>
+        <v>1964.414731242071</v>
       </c>
       <c r="I42">
-        <v>475.4404892562797</v>
+        <v>476.9638951506161</v>
       </c>
       <c r="J42">
-        <v>51.35326215139484</v>
+        <v>55.72026681123545</v>
       </c>
       <c r="K42">
-        <v>344.4664100797606</v>
+        <v>326.6643874416192</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.3453704630292</v>
+        <v>44.02118836096707</v>
       </c>
       <c r="G43">
-        <v>482.8781063225514</v>
+        <v>446.7586753308371</v>
       </c>
       <c r="H43">
-        <v>1872.944979886665</v>
+        <v>1903.65254204662</v>
       </c>
       <c r="I43">
-        <v>550.1163288771646</v>
+        <v>548.7128055019523</v>
       </c>
       <c r="J43">
-        <v>5.263353795942977</v>
+        <v>5.079555354335521</v>
       </c>
       <c r="K43">
-        <v>33.59979484718777</v>
+        <v>34.63650520076733</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.65359769529733</v>
+        <v>43.16571332017216</v>
       </c>
       <c r="G44">
-        <v>473.9258979779988</v>
+        <v>477.5275278189225</v>
       </c>
       <c r="H44">
-        <v>1991.087496490189</v>
+        <v>1860.572242164623</v>
       </c>
       <c r="I44">
-        <v>620.2447628457039</v>
+        <v>619.1469595461519</v>
       </c>
       <c r="J44">
-        <v>-41.92354331269653</v>
+        <v>-44.24663339486567</v>
       </c>
       <c r="K44">
-        <v>-276.3402085024496</v>
+        <v>-277.5370468528707</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>39.02496135652512</v>
+        <v>40.68508325662422</v>
       </c>
       <c r="G45">
-        <v>478.9599789179434</v>
+        <v>488.3759677718911</v>
       </c>
       <c r="H45">
-        <v>1952.856465788081</v>
+        <v>1997.097168032448</v>
       </c>
       <c r="I45">
-        <v>711.149409084178</v>
+        <v>709.8472240160673</v>
       </c>
       <c r="J45">
-        <v>-92.38506419744819</v>
+        <v>-93.37800727387084</v>
       </c>
       <c r="K45">
-        <v>-601.0887512120903</v>
+        <v>-628.0106421083397</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.45694119644937</v>
+        <v>41.27592400729387</v>
       </c>
       <c r="G46">
-        <v>530.3432892427533</v>
+        <v>498.2428591103161</v>
       </c>
       <c r="H46">
-        <v>1951.630619503639</v>
+        <v>1932.804648982144</v>
       </c>
       <c r="I46">
-        <v>800.8312770834183</v>
+        <v>822.7524794656713</v>
       </c>
       <c r="J46">
-        <v>-139.1660554835121</v>
+        <v>-145.289208386676</v>
       </c>
       <c r="K46">
-        <v>-973.7441382897504</v>
+        <v>-948.5335697210317</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.42354682650984</v>
+        <v>39.03049770930564</v>
       </c>
       <c r="G47">
-        <v>520.8895935499359</v>
+        <v>510.0667079708343</v>
       </c>
       <c r="H47">
-        <v>1873.13408505469</v>
+        <v>1972.646552551785</v>
       </c>
       <c r="I47">
-        <v>904.3941709423693</v>
+        <v>865.0150255560508</v>
       </c>
       <c r="J47">
-        <v>-181.6292097153155</v>
+        <v>-186.298641727445</v>
       </c>
       <c r="K47">
-        <v>-1297.804164309477</v>
+        <v>-1362.786902088609</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.72157395220218</v>
+        <v>41.01567080085568</v>
       </c>
       <c r="G48">
-        <v>526.150270421881</v>
+        <v>519.4614915432144</v>
       </c>
       <c r="H48">
-        <v>2007.438373663267</v>
+        <v>1937.038044332937</v>
       </c>
       <c r="I48">
-        <v>1018.968381708764</v>
+        <v>938.9368591692637</v>
       </c>
       <c r="J48">
-        <v>-240.5072142140556</v>
+        <v>-247.2801971351349</v>
       </c>
       <c r="K48">
-        <v>-1654.805492881872</v>
+        <v>-1731.561622398378</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.30436043997073</v>
+        <v>39.95860697667126</v>
       </c>
       <c r="G49">
-        <v>551.2435411474788</v>
+        <v>565.5877280770335</v>
       </c>
       <c r="H49">
-        <v>2038.384692863751</v>
+        <v>2045.549886638849</v>
       </c>
       <c r="I49">
-        <v>1111.662375404654</v>
+        <v>1035.719360737533</v>
       </c>
       <c r="J49">
-        <v>-274.1921798143198</v>
+        <v>-281.9352865817501</v>
       </c>
       <c r="K49">
-        <v>-2047.971120364154</v>
+        <v>-2103.577690216166</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>39.9141032331069</v>
+        <v>39.38922541269864</v>
       </c>
       <c r="G50">
-        <v>602.1276506571783</v>
+        <v>566.8678424190432</v>
       </c>
       <c r="H50">
-        <v>1893.365395351839</v>
+        <v>1997.862184043601</v>
       </c>
       <c r="I50">
-        <v>1210.075866700717</v>
+        <v>1142.223307930524</v>
       </c>
       <c r="J50">
-        <v>-347.0083702026305</v>
+        <v>-347.5219997406296</v>
       </c>
       <c r="K50">
-        <v>-2432.336355670921</v>
+        <v>-2444.723319944575</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.4563977828817</v>
+        <v>39.42524316186703</v>
       </c>
       <c r="G51">
-        <v>587.1065791327247</v>
+        <v>613.0229299757775</v>
       </c>
       <c r="H51">
-        <v>1883.345673342483</v>
+        <v>1888.905590767809</v>
       </c>
       <c r="I51">
-        <v>1258.793599853109</v>
+        <v>1317.579606197612</v>
       </c>
       <c r="J51">
-        <v>-395.6725089655794</v>
+        <v>-370.9845942316265</v>
       </c>
       <c r="K51">
-        <v>-2951.765416084647</v>
+        <v>-2855.991332058493</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.80502541108699</v>
+        <v>37.77720761684465</v>
       </c>
       <c r="G52">
-        <v>620.3743255155584</v>
+        <v>613.115415364312</v>
       </c>
       <c r="H52">
-        <v>1908.544674613378</v>
+        <v>1931.390333002735</v>
       </c>
       <c r="I52">
-        <v>1297.756649635536</v>
+        <v>1350.744767386859</v>
       </c>
       <c r="J52">
-        <v>-448.8227708132843</v>
+        <v>-414.5807636123328</v>
       </c>
       <c r="K52">
-        <v>-3507.203113725686</v>
+        <v>-3222.9525836071</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.44504253204267</v>
+        <v>37.21685181774502</v>
       </c>
       <c r="G53">
-        <v>635.597000583772</v>
+        <v>602.9300302582516</v>
       </c>
       <c r="H53">
-        <v>2013.941950771796</v>
+        <v>2064.589180484498</v>
       </c>
       <c r="I53">
-        <v>1417.786418494608</v>
+        <v>1422.920373152412</v>
       </c>
       <c r="J53">
-        <v>-468.5707727119329</v>
+        <v>-460.1434632555016</v>
       </c>
       <c r="K53">
-        <v>-3818.479591455724</v>
+        <v>-3970.640242814874</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.57263787411131</v>
+        <v>37.42665791259574</v>
       </c>
       <c r="G54">
-        <v>645.2037955613158</v>
+        <v>638.9754504640349</v>
       </c>
       <c r="H54">
-        <v>1922.298276209372</v>
+        <v>2023.529386316761</v>
       </c>
       <c r="I54">
-        <v>1486.481257585889</v>
+        <v>1616.643070094399</v>
       </c>
       <c r="J54">
-        <v>-553.6412878138048</v>
+        <v>-552.1656319302681</v>
       </c>
       <c r="K54">
-        <v>-4489.168603579537</v>
+        <v>-4192.226199168419</v>
       </c>
     </row>
   </sheetData>
